--- a/detection_metrics.xlsx
+++ b/detection_metrics.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t xml:space="preserve">Filename</t>
   </si>
@@ -70,13 +70,31 @@
     <t xml:space="preserve">pc19.png</t>
   </si>
   <si>
+    <t xml:space="preserve">Actual 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual 0</t>
+  </si>
+  <si>
     <t xml:space="preserve">pc20.png</t>
   </si>
   <si>
+    <t xml:space="preserve">Observed 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training</t>
+  </si>
+  <si>
     <t xml:space="preserve">pc21.png</t>
   </si>
   <si>
+    <t xml:space="preserve">Verication</t>
+  </si>
+  <si>
     <t xml:space="preserve">pc22.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observed 0</t>
   </si>
   <si>
     <t xml:space="preserve">pc23.png</t>
@@ -314,10 +332,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N32" activeCellId="0" sqref="N32"/>
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -549,10 +567,16 @@
       <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="J11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.88</v>
@@ -569,10 +593,16 @@
       <c r="F12" s="0" t="n">
         <v>16.01</v>
       </c>
+      <c r="H12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.95</v>
@@ -589,10 +619,13 @@
       <c r="F13" s="0" t="n">
         <v>13.1</v>
       </c>
+      <c r="I13" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.09</v>
@@ -609,10 +642,16 @@
       <c r="F14" s="0" t="n">
         <v>7.14</v>
       </c>
+      <c r="H14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.94</v>
@@ -629,10 +668,13 @@
       <c r="F15" s="0" t="n">
         <v>17.33</v>
       </c>
+      <c r="I15" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.86</v>
@@ -652,7 +694,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.54</v>
@@ -672,7 +714,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.42</v>
@@ -692,7 +734,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.62</v>
@@ -712,7 +754,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1</v>
@@ -732,7 +774,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1</v>
@@ -752,7 +794,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">AVERAGE(B2:B21)</f>
@@ -777,7 +819,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">STDEV(B2:B21)</f>

--- a/detection_metrics.xlsx
+++ b/detection_metrics.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t xml:space="preserve">Filename</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ground Truth Area (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detection </t>
   </si>
   <si>
     <t xml:space="preserve">pc10.png</t>
@@ -136,6 +139,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -195,8 +199,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -209,15 +221,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -332,286 +335,333 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>4.29</v>
+        <v>3.56</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>98.04</v>
+        <v>96.44</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>11.11</v>
+        <v>10.85</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10.85</v>
       </c>
+      <c r="G2" s="0" t="str">
+        <f aca="false">IF(B2&gt;0.4, "Found", "Not Found")</f>
+        <v>Found</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>21.83</v>
+        <v>26.53</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>99.89</v>
+        <v>100</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>12.17</v>
+        <v>12.96</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>9.52</v>
       </c>
+      <c r="G3" s="0" t="str">
+        <f aca="false">IF(B3&gt;0.4, "Found", "Not Found")</f>
+        <v>Found</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.25</v>
+        <v>0.85</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>74.34</v>
+        <v>14.58</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>88.43</v>
+        <v>99.52</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>46.96</v>
+        <v>15.87</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>13.62</v>
       </c>
+      <c r="G4" s="0" t="str">
+        <f aca="false">IF(B4&gt;0.4, "Found", "Not Found")</f>
+        <v>Found</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>25.76</v>
+        <v>21.15</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>99.59</v>
+        <v>100</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>14.55</v>
+        <v>13.76</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10.85</v>
       </c>
+      <c r="G5" s="0" t="str">
+        <f aca="false">IF(B5&gt;0.4, "Found", "Not Found")</f>
+        <v>Found</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4.87</v>
+        <v>5.14</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>98.59</v>
+        <v>93.13</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>7.54</v>
+        <v>7.14</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>7.28</v>
       </c>
+      <c r="G6" s="0" t="str">
+        <f aca="false">IF(B6&gt;0.4, "Found", "Not Found")</f>
+        <v>Found</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>9.67</v>
+        <v>6.13</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>94.37</v>
+        <v>95.27</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>9.26</v>
+        <v>8.99</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>8.86</v>
       </c>
+      <c r="G7" s="0" t="str">
+        <f aca="false">IF(B7&gt;0.4, "Found", "Not Found")</f>
+        <v>Found</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.38</v>
+        <v>0.76</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>50.97</v>
+        <v>16.63</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>62.56</v>
+        <v>89.11</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>9.79</v>
+        <v>8.2</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7.67</v>
       </c>
+      <c r="G8" s="0" t="str">
+        <f aca="false">IF(B8&gt;0.4, "Found", "Not Found")</f>
+        <v>Found</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>22.66</v>
+        <v>7.86</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>96.48</v>
+        <v>99.43</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>16.67</v>
+        <v>14.42</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>13.36</v>
       </c>
+      <c r="G9" s="0" t="str">
+        <f aca="false">IF(B9&gt;0.4, "Found", "Not Found")</f>
+        <v>Found</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.93</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>6.19</v>
+        <v>5.24</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>99.03</v>
+        <v>98.27</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>15.08</v>
+        <v>14.81</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>14.29</v>
       </c>
+      <c r="G10" s="0" t="str">
+        <f aca="false">IF(B10&gt;0.4, "Found", "Not Found")</f>
+        <v>Found</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="0" t="n">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="0" t="s">
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f aca="false">IF(B11&gt;0.4, "Found", "Not Found")</f>
+        <v>Found</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>4.62</v>
+        <v>0.64</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>92.23</v>
+        <v>93.61</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>15.48</v>
+        <v>15.08</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>16.01</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="0" t="s">
+      <c r="G12" s="0" t="str">
+        <f aca="false">IF(B12&gt;0.4, "Found", "Not Found")</f>
+        <v>Found</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>2.82</v>
+        <v>3.82</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>98.16</v>
+        <v>97.15</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>13.23</v>
@@ -619,91 +669,107 @@
       <c r="F13" s="0" t="n">
         <v>13.1</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>22</v>
+      <c r="G13" s="0" t="str">
+        <f aca="false">IF(B13&gt;0.4, "Found", "Not Found")</f>
+        <v>Found</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>89.54</v>
+        <v>100</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>43.39</v>
+        <v>0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>29.63</v>
+        <v>10.19</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>7.14</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>20</v>
+      <c r="G14" s="0" t="str">
+        <f aca="false">IF(B14&gt;0.4, "Found", "Not Found")</f>
+        <v>Not Found</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>5.99</v>
+        <v>3.15</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>99.75</v>
+        <v>99.81</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>18.39</v>
+        <v>17.86</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>17.33</v>
       </c>
-      <c r="I15" s="0" t="s">
-        <v>22</v>
+      <c r="G15" s="0" t="str">
+        <f aca="false">IF(B15&gt;0.4, "Found", "Not Found")</f>
+        <v>Found</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>11.73</v>
+        <v>10.03</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>97.64</v>
+        <v>98.15</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>9.66</v>
+        <v>9.52</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>8.73</v>
       </c>
+      <c r="G16" s="0" t="str">
+        <f aca="false">IF(B16&gt;0.4, "Found", "Not Found")</f>
+        <v>Found</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>37.11</v>
+        <v>37.76</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>78.9</v>
+        <v>78.08</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>9.13</v>
@@ -711,133 +777,153 @@
       <c r="F17" s="0" t="n">
         <v>7.28</v>
       </c>
+      <c r="G17" s="0" t="str">
+        <f aca="false">IF(B17&gt;0.4, "Found", "Not Found")</f>
+        <v>Found</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.42</v>
+        <v>0.77</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>45.08</v>
+        <v>12.28</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>64.86</v>
+        <v>86.89</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>16.4</v>
+        <v>13.76</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>13.89</v>
       </c>
+      <c r="G18" s="0" t="str">
+        <f aca="false">IF(B18&gt;0.4, "Found", "Not Found")</f>
+        <v>Found</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>36.36</v>
+        <v>39.81</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>96.58</v>
+        <v>97.73</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>17.06</v>
+        <v>18.25</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>11.24</v>
       </c>
+      <c r="G19" s="0" t="str">
+        <f aca="false">IF(B19&gt;0.4, "Found", "Not Found")</f>
+        <v>Found</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="0" t="n">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
+      <c r="C20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>0</v>
+      <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="str">
+        <f aca="false">IF(B20&gt;0.4, "Found", "Not Found")</f>
+        <v>Found</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="0" t="n">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
+      <c r="C21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>0</v>
+      <c r="E21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="str">
+        <f aca="false">IF(B21&gt;0.4, "Found", "Not Found")</f>
+        <v>Found</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="0" t="n">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="n">
         <f aca="false">AVERAGE(B2:B21)</f>
-        <v>0.7435</v>
-      </c>
-      <c r="C23" s="0" t="n">
+        <v>0.8155</v>
+      </c>
+      <c r="C23" s="1" t="n">
         <f aca="false">AVERAGE(C2:C21)</f>
-        <v>22.6915</v>
-      </c>
-      <c r="D23" s="0" t="n">
+        <v>15.7155</v>
+      </c>
+      <c r="D23" s="1" t="n">
         <f aca="false">AVERAGE(D2:D21)</f>
-        <v>90.4245</v>
-      </c>
-      <c r="E23" s="0" t="n">
+        <v>91.1295</v>
+      </c>
+      <c r="E23" s="1" t="n">
         <f aca="false">AVERAGE(E2:E21)</f>
-        <v>13.6055</v>
-      </c>
-      <c r="F23" s="0" t="n">
+        <v>10.701</v>
+      </c>
+      <c r="F23" s="1" t="n">
         <f aca="false">AVERAGE(F2:F21)</f>
         <v>9.551</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="0" t="n">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="n">
         <f aca="false">STDEV(B2:B21)</f>
-        <v>0.271628132021084</v>
-      </c>
-      <c r="C24" s="0" t="n">
+        <v>0.231732036719365</v>
+      </c>
+      <c r="C24" s="1" t="n">
         <f aca="false">STDEV(C2:C21)</f>
-        <v>25.7574012408902</v>
-      </c>
-      <c r="D24" s="0" t="n">
+        <v>23.1171418455064</v>
+      </c>
+      <c r="D24" s="1" t="n">
         <f aca="false">STDEV(D2:D21)</f>
-        <v>15.7591432023979</v>
-      </c>
-      <c r="E24" s="0" t="n">
+        <v>22.1722834270271</v>
+      </c>
+      <c r="E24" s="1" t="n">
         <f aca="false">STDEV(E2:E21)</f>
-        <v>10.5068887051857</v>
-      </c>
-      <c r="F24" s="0" t="n">
+        <v>5.54695354985153</v>
+      </c>
+      <c r="F24" s="1" t="n">
         <f aca="false">STDEV(F2:F21)</f>
         <v>5.06737750092117</v>
       </c>
